--- a/notebooks/ids_decision_table_no_dictionary.xlsx
+++ b/notebooks/ids_decision_table_no_dictionary.xlsx
@@ -547,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -611,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>string</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -643,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -675,7 +675,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -835,7 +835,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -867,7 +867,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1027,17 +1027,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>string</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0.0001168360789811894</v>
       </c>
       <c r="D19" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7708634461513503</v>
+        <v>0.7708351921030724</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01022655120847358</v>
+        <v>0.01110664293705369</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1802,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E43" t="n">
-        <v>0.04102117063398069</v>
+        <v>0.04105675078128344</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2307,17 +2307,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>string</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>0.7054562448884215</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>0.03287397545570364</v>
       </c>
       <c r="F59" t="n">
         <v>0.08593580449387284</v>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>DROP: constant</t>
+          <t>KEEP: informative missingness</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>object</t>
         </is>
       </c>
       <c r="C73" t="n">
